--- a/data/trans_orig/P36B_4_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B_4_R-Estudios-trans_orig.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6C1E242-3334-4C16-94E5-BD533807DA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6BAC84D-12EC-4F54-9150-012A7EE1BC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A464821C-456D-46D2-81C3-790A69236EAA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F963DE83-0AF5-4070-AADF-4A64DFD3FFBA}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,41 +39,701 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+  <si>
+    <t>Población que consume frutas a diario en 2007 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
   <si>
     <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>79,02%</t>
   </si>
   <si>
@@ -98,9 +761,6 @@
     <t>82,71%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>20,98%</t>
   </si>
   <si>
@@ -128,12 +788,6 @@
     <t>21,02%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
     <t>74,74%</t>
   </si>
   <si>
@@ -188,9 +842,6 @@
     <t>31,56%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
     <t>78,7%</t>
   </si>
   <si>
@@ -297,9 +948,6 @@
   </si>
   <si>
     <t>27,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
 </sst>
 </file>
@@ -711,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9C433D-0457-4BB9-88D9-17C4A2451F35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB5DC6-5B11-48D9-9E1A-95FA5BFDBFB9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -829,10 +1477,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D4" s="7">
-        <v>428025</v>
+        <v>550313</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -844,10 +1492,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1170</v>
+        <v>776</v>
       </c>
       <c r="I4" s="7">
-        <v>683900</v>
+        <v>790206</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -859,10 +1507,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1719</v>
+        <v>1337</v>
       </c>
       <c r="N4" s="7">
-        <v>1111926</v>
+        <v>1340519</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -880,10 +1528,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>142</v>
+        <v>476</v>
       </c>
       <c r="D5" s="7">
-        <v>113609</v>
+        <v>480368</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -895,10 +1543,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>254</v>
+        <v>514</v>
       </c>
       <c r="I5" s="7">
-        <v>150446</v>
+        <v>523931</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -910,10 +1558,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>396</v>
+        <v>990</v>
       </c>
       <c r="N5" s="7">
-        <v>264054</v>
+        <v>1004299</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -931,10 +1579,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>691</v>
+        <v>1037</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>1030681</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -946,10 +1594,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1424</v>
+        <v>1290</v>
       </c>
       <c r="I6" s="7">
-        <v>834346</v>
+        <v>1314137</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -961,10 +1609,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>2115</v>
+        <v>2327</v>
       </c>
       <c r="N6" s="7">
-        <v>1375980</v>
+        <v>2344818</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -984,10 +1632,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1514</v>
+        <v>716</v>
       </c>
       <c r="D7" s="7">
-        <v>1615138</v>
+        <v>732222</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -999,10 +1647,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>2333</v>
+        <v>802</v>
       </c>
       <c r="I7" s="7">
-        <v>1685950</v>
+        <v>826533</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1014,10 +1662,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>3847</v>
+        <v>1518</v>
       </c>
       <c r="N7" s="7">
-        <v>3301088</v>
+        <v>1558755</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1035,10 +1683,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>477</v>
+        <v>931</v>
       </c>
       <c r="D8" s="7">
-        <v>545807</v>
+        <v>959361</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1050,10 +1698,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>586</v>
+        <v>751</v>
       </c>
       <c r="I8" s="7">
-        <v>562375</v>
+        <v>760080</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1065,10 +1713,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1063</v>
+        <v>1682</v>
       </c>
       <c r="N8" s="7">
-        <v>1108182</v>
+        <v>1719441</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1086,10 +1734,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1991</v>
+        <v>1647</v>
       </c>
       <c r="D9" s="7">
-        <v>2160945</v>
+        <v>1691583</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1101,10 +1749,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>2919</v>
+        <v>1553</v>
       </c>
       <c r="I9" s="7">
-        <v>2248325</v>
+        <v>1586613</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1764,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>4910</v>
+        <v>3200</v>
       </c>
       <c r="N9" s="7">
-        <v>4409270</v>
+        <v>3278196</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1139,10 +1787,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>543</v>
+        <v>255</v>
       </c>
       <c r="D10" s="7">
-        <v>529684</v>
+        <v>269125</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1154,10 +1802,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>813</v>
+        <v>253</v>
       </c>
       <c r="I10" s="7">
-        <v>565906</v>
+        <v>268872</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1169,10 +1817,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1356</v>
+        <v>508</v>
       </c>
       <c r="N10" s="7">
-        <v>1095591</v>
+        <v>537997</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1190,10 +1838,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>138</v>
+        <v>272</v>
       </c>
       <c r="D11" s="7">
-        <v>143355</v>
+        <v>282283</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1205,10 +1853,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="I11" s="7">
-        <v>147980</v>
+        <v>207540</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1220,10 +1868,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>329</v>
+        <v>471</v>
       </c>
       <c r="N11" s="7">
-        <v>291335</v>
+        <v>489823</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1241,10 +1889,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>681</v>
+        <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1256,10 +1904,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1004</v>
+        <v>452</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1271,10 +1919,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1685</v>
+        <v>979</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1294,10 +1942,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2606</v>
+        <v>1532</v>
       </c>
       <c r="D13" s="7">
-        <v>2572847</v>
+        <v>1551659</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1309,10 +1957,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>4316</v>
+        <v>1831</v>
       </c>
       <c r="I13" s="7">
-        <v>2935756</v>
+        <v>1885611</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1324,10 +1972,10 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>6922</v>
+        <v>3363</v>
       </c>
       <c r="N13" s="7">
-        <v>5508604</v>
+        <v>3437270</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1345,19 +1993,2272 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>1679</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1722012</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1464</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1491551</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="7">
+        <v>3143</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3213563</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3211</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3273671</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3295</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3377162</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>6506</v>
+      </c>
+      <c r="N15" s="7">
+        <v>6650833</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6260E2AF-0BCA-4B66-98AA-F9B8EAB4E46A}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>622</v>
+      </c>
+      <c r="D4" s="7">
+        <v>673454</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="7">
+        <v>966</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1032225</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1588</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1705678</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>283</v>
+      </c>
+      <c r="D5" s="7">
+        <v>298126</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="7">
+        <v>280</v>
+      </c>
+      <c r="I5" s="7">
+        <v>304474</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="7">
+        <v>563</v>
+      </c>
+      <c r="N5" s="7">
+        <v>602601</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>905</v>
+      </c>
+      <c r="D6" s="7">
+        <v>971580</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1246</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1336699</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2151</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2308279</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1038</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1101175</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="7">
+        <v>997</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1067867</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2035</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2169043</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>817</v>
+      </c>
+      <c r="D8" s="7">
+        <v>861823</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="7">
+        <v>633</v>
+      </c>
+      <c r="I8" s="7">
+        <v>683696</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1450</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1545519</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1855</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1962998</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1630</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1751563</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3485</v>
+      </c>
+      <c r="N9" s="7">
+        <v>3714562</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>236</v>
+      </c>
+      <c r="D10" s="7">
+        <v>264259</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="7">
+        <v>279</v>
+      </c>
+      <c r="I10" s="7">
+        <v>309795</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="7">
+        <v>515</v>
+      </c>
+      <c r="N10" s="7">
+        <v>574054</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>201</v>
+      </c>
+      <c r="D11" s="7">
+        <v>215882</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="7">
+        <v>133</v>
+      </c>
+      <c r="I11" s="7">
+        <v>148836</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" s="7">
+        <v>334</v>
+      </c>
+      <c r="N11" s="7">
+        <v>364718</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>437</v>
+      </c>
+      <c r="D12" s="7">
+        <v>480141</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>412</v>
+      </c>
+      <c r="I12" s="7">
+        <v>458631</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>849</v>
+      </c>
+      <c r="N12" s="7">
+        <v>938772</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1896</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2038889</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2242</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2409887</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4138</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4448775</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1301</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1375831</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1046</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1137007</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2347</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2512838</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3197</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3414720</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3288</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3546894</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>6485</v>
+      </c>
+      <c r="N15" s="7">
+        <v>6961613</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19CAA4B-FA44-4C26-B07C-DEE7B895D6F0}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>452</v>
+      </c>
+      <c r="D4" s="7">
+        <v>443566</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="7">
+        <v>568</v>
+      </c>
+      <c r="I4" s="7">
+        <v>643258</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1020</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1086824</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>306</v>
+      </c>
+      <c r="D5" s="7">
+        <v>306791</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="7">
+        <v>323</v>
+      </c>
+      <c r="I5" s="7">
+        <v>350323</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M5" s="7">
+        <v>629</v>
+      </c>
+      <c r="N5" s="7">
+        <v>657114</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>758</v>
+      </c>
+      <c r="D6" s="7">
+        <v>750357</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>891</v>
+      </c>
+      <c r="I6" s="7">
+        <v>993581</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1649</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1743938</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>991</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1058183</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1041</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1094202</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2032</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2152385</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>959</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1015392</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="7">
+        <v>863</v>
+      </c>
+      <c r="I8" s="7">
+        <v>889347</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1822</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1904739</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1950</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2073575</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1904</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1983549</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3854</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4057124</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>307</v>
+      </c>
+      <c r="D10" s="7">
+        <v>333591</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="7">
+        <v>328</v>
+      </c>
+      <c r="I10" s="7">
+        <v>349345</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M10" s="7">
+        <v>635</v>
+      </c>
+      <c r="N10" s="7">
+        <v>682936</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>194</v>
+      </c>
+      <c r="D11" s="7">
+        <v>213295</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="7">
+        <v>198</v>
+      </c>
+      <c r="I11" s="7">
+        <v>199795</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M11" s="7">
+        <v>392</v>
+      </c>
+      <c r="N11" s="7">
+        <v>413090</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>501</v>
+      </c>
+      <c r="D12" s="7">
+        <v>546886</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>526</v>
+      </c>
+      <c r="I12" s="7">
+        <v>549140</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1027</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1096026</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1750</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1835340</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1937</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2086806</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="7">
+        <v>3687</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3922146</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1459</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1535478</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1384</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1439465</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2843</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2974943</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3370818</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3321</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3526271</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>6530</v>
+      </c>
+      <c r="N15" s="7">
+        <v>6897089</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9221561-423B-4932-BE3E-A4F39E05660C}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>549</v>
+      </c>
+      <c r="D4" s="7">
+        <v>428025</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1170</v>
+      </c>
+      <c r="I4" s="7">
+        <v>683900</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1719</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1111926</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>142</v>
+      </c>
+      <c r="D5" s="7">
+        <v>113609</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="7">
+        <v>254</v>
+      </c>
+      <c r="I5" s="7">
+        <v>150446</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M5" s="7">
+        <v>396</v>
+      </c>
+      <c r="N5" s="7">
+        <v>264054</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>691</v>
+      </c>
+      <c r="D6" s="7">
+        <v>541634</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1424</v>
+      </c>
+      <c r="I6" s="7">
+        <v>834346</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2115</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1375980</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1514</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1615138</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2333</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1685950</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M7" s="7">
+        <v>3847</v>
+      </c>
+      <c r="N7" s="7">
+        <v>3301088</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>477</v>
+      </c>
+      <c r="D8" s="7">
+        <v>545807</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" s="7">
+        <v>586</v>
+      </c>
+      <c r="I8" s="7">
+        <v>562375</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1063</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1108182</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1991</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2160945</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2919</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2248325</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>4910</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4409270</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>543</v>
+      </c>
+      <c r="D10" s="7">
+        <v>529684</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H10" s="7">
+        <v>813</v>
+      </c>
+      <c r="I10" s="7">
+        <v>565906</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1356</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1095591</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>138</v>
+      </c>
+      <c r="D11" s="7">
+        <v>143355</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11" s="7">
+        <v>191</v>
+      </c>
+      <c r="I11" s="7">
+        <v>147980</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M11" s="7">
+        <v>329</v>
+      </c>
+      <c r="N11" s="7">
+        <v>291335</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>681</v>
+      </c>
+      <c r="D12" s="7">
+        <v>673039</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1004</v>
+      </c>
+      <c r="I12" s="7">
+        <v>713886</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1685</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1386926</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2606</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2572847</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4316</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2935756</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M13" s="7">
+        <v>6922</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5508604</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
         <v>757</v>
       </c>
       <c r="D14" s="7">
         <v>802771</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>1031</v>
@@ -1366,13 +4267,13 @@
         <v>860802</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>1788</v>
@@ -1381,13 +4282,13 @@
         <v>1663572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B_4_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B_4_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6BAC84D-12EC-4F54-9150-012A7EE1BC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F93FAD1E-ED4A-412E-A5FC-927D097BA4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F963DE83-0AF5-4070-AADF-4A64DFD3FFBA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59C3F67C-6888-4CCD-BAB7-3171B566D48A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población que consume frutas a diario en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -77,19 +77,19 @@
     <t>53,39%</t>
   </si>
   <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
   </si>
   <si>
     <t>60,13%</t>
   </si>
   <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
   </si>
   <si>
     <t>57,17%</t>
@@ -98,7 +98,7 @@
     <t>55,1%</t>
   </si>
   <si>
-    <t>59,08%</t>
+    <t>59,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>46,61%</t>
   </si>
   <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
   </si>
   <si>
     <t>39,87%</t>
   </si>
   <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
   </si>
   <si>
     <t>42,83%</t>
   </si>
   <si>
-    <t>40,92%</t>
+    <t>40,82%</t>
   </si>
   <si>
     <t>44,9%</t>
@@ -140,10 +140,10 @@
     <t>43,29%</t>
   </si>
   <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
   </si>
   <si>
     <t>52,09%</t>
@@ -152,31 +152,31 @@
     <t>49,63%</t>
   </si>
   <si>
-    <t>54,6%</t>
+    <t>54,47%</t>
   </si>
   <si>
     <t>47,55%</t>
   </si>
   <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
   </si>
   <si>
     <t>56,71%</t>
   </si>
   <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
   </si>
   <si>
     <t>47,91%</t>
   </si>
   <si>
-    <t>45,4%</t>
+    <t>45,53%</t>
   </si>
   <si>
     <t>50,37%</t>
@@ -185,10 +185,10 @@
     <t>52,45%</t>
   </si>
   <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,757 +197,763 @@
     <t>48,81%</t>
   </si>
   <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
     <t>44,29%</t>
   </si>
   <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
+    <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
   </si>
   <si>
     <t>63,25%</t>
   </si>
   <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
   </si>
   <si>
     <t>36,75%</t>
   </si>
   <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
   </si>
   <si>
     <t>78,7%</t>
   </si>
   <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
   </si>
   <si>
     <t>79,27%</t>
   </si>
   <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
   </si>
   <si>
     <t>78,99%</t>
   </si>
   <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
   </si>
   <si>
     <t>21,3%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
   </si>
   <si>
     <t>21,01%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
   </si>
   <si>
     <t>76,22%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>77,33%</t>
   </si>
   <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
   </si>
   <si>
     <t>23,78%</t>
   </si>
   <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>22,67%</t>
   </si>
   <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB5DC6-5B11-48D9-9E1A-95FA5BFDBFB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8832309-DAB2-4F7B-A30E-5A7D9C4E0E11}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2110,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6260E2AF-0BCA-4B66-98AA-F9B8EAB4E46A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5556472-7674-486C-9490-9521A5B98B45}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2762,7 +2768,7 @@
         <v>1046</v>
       </c>
       <c r="I14" s="7">
-        <v>1137007</v>
+        <v>1137006</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>155</v>
@@ -2813,7 +2819,7 @@
         <v>3288</v>
       </c>
       <c r="I15" s="7">
-        <v>3546894</v>
+        <v>3546893</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2861,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19CAA4B-FA44-4C26-B07C-DEE7B895D6F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFF0D4C-8F8A-4F57-8357-D6B66452E95A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3465,13 +3471,13 @@
         <v>2086806</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>3687</v>
@@ -3486,7 +3492,7 @@
         <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3507,13 @@
         <v>1535478</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>1384</v>
@@ -3516,13 +3522,13 @@
         <v>1439465</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>2843</v>
@@ -3531,13 +3537,13 @@
         <v>2974943</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9221561-423B-4932-BE3E-A4F39E05660C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E23425A-2BB6-403E-87C8-52425B9E3064}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3742,13 @@
         <v>428025</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>1170</v>
@@ -3751,13 +3757,13 @@
         <v>683900</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1719</v>
@@ -3766,13 +3772,13 @@
         <v>1111926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3793,13 @@
         <v>113609</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>254</v>
@@ -3802,13 +3808,13 @@
         <v>150446</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>396</v>
@@ -3817,13 +3823,13 @@
         <v>264054</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3897,13 @@
         <v>1615138</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>2333</v>
@@ -3906,13 +3912,13 @@
         <v>1685950</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>3847</v>
@@ -3921,13 +3927,13 @@
         <v>3301088</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3948,13 @@
         <v>545807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>586</v>
@@ -3957,13 +3963,13 @@
         <v>562375</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>1063</v>
@@ -3972,13 +3978,13 @@
         <v>1108182</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4052,13 @@
         <v>529684</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>813</v>
@@ -4061,13 +4067,13 @@
         <v>565906</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>1356</v>
@@ -4076,13 +4082,13 @@
         <v>1095591</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4103,13 @@
         <v>143355</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>191</v>
@@ -4112,13 +4118,13 @@
         <v>147980</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>329</v>
@@ -4127,13 +4133,13 @@
         <v>291335</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4207,13 @@
         <v>2572847</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>4316</v>
@@ -4216,13 +4222,13 @@
         <v>2935756</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>6922</v>
@@ -4231,13 +4237,13 @@
         <v>5508604</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4258,13 @@
         <v>802771</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>1031</v>
@@ -4267,13 +4273,13 @@
         <v>860802</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>1788</v>
@@ -4282,13 +4288,13 @@
         <v>1663572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B_4_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B_4_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F93FAD1E-ED4A-412E-A5FC-927D097BA4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FDD6CDD-1F52-409A-AD0E-EB2B134E2EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59C3F67C-6888-4CCD-BAB7-3171B566D48A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5D863DB4-3728-4E9E-AD16-81CF03B355A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -740,220 +740,220 @@
     <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>78,19%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8832309-DAB2-4F7B-A30E-5A7D9C4E0E11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD17FE3-2014-4A41-8EB6-CDE8B280D62C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2116,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5556472-7674-486C-9490-9521A5B98B45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C7C466-08E6-40BC-94CA-71ACE5D3F3F5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2392,7 +2392,7 @@
         <v>1038</v>
       </c>
       <c r="D7" s="7">
-        <v>1101175</v>
+        <v>1101176</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -2494,7 +2494,7 @@
         <v>1855</v>
       </c>
       <c r="D9" s="7">
-        <v>1962998</v>
+        <v>1962999</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2867,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFF0D4C-8F8A-4F57-8357-D6B66452E95A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50A8EF4-531E-4A9C-A6D1-ECDF8A74F0AF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3328,7 +3328,7 @@
         <v>635</v>
       </c>
       <c r="N10" s="7">
-        <v>682936</v>
+        <v>682937</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>204</v>
@@ -3430,7 +3430,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3618,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E23425A-2BB6-403E-87C8-52425B9E3064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DEB041-BE52-4EFD-A89C-CEE112C9F7E7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3739,7 +3739,7 @@
         <v>549</v>
       </c>
       <c r="D4" s="7">
-        <v>428025</v>
+        <v>402617</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
@@ -3754,7 +3754,7 @@
         <v>1170</v>
       </c>
       <c r="I4" s="7">
-        <v>683900</v>
+        <v>613522</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>236</v>
@@ -3769,7 +3769,7 @@
         <v>1719</v>
       </c>
       <c r="N4" s="7">
-        <v>1111926</v>
+        <v>1016139</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>239</v>
@@ -3790,7 +3790,7 @@
         <v>142</v>
       </c>
       <c r="D5" s="7">
-        <v>113609</v>
+        <v>112321</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>242</v>
@@ -3805,7 +3805,7 @@
         <v>254</v>
       </c>
       <c r="I5" s="7">
-        <v>150446</v>
+        <v>140499</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>245</v>
@@ -3820,7 +3820,7 @@
         <v>396</v>
       </c>
       <c r="N5" s="7">
-        <v>264054</v>
+        <v>252820</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>248</v>
@@ -3841,7 +3841,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3856,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>834346</v>
+        <v>754021</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3871,7 +3871,7 @@
         <v>2115</v>
       </c>
       <c r="N6" s="7">
-        <v>1375980</v>
+        <v>1268959</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3894,7 +3894,7 @@
         <v>1514</v>
       </c>
       <c r="D7" s="7">
-        <v>1615138</v>
+        <v>1738139</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>251</v>
@@ -3909,7 +3909,7 @@
         <v>2333</v>
       </c>
       <c r="I7" s="7">
-        <v>1685950</v>
+        <v>1604054</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>254</v>
@@ -3924,7 +3924,7 @@
         <v>3847</v>
       </c>
       <c r="N7" s="7">
-        <v>3301088</v>
+        <v>3342195</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>257</v>
@@ -3945,7 +3945,7 @@
         <v>477</v>
       </c>
       <c r="D8" s="7">
-        <v>545807</v>
+        <v>551158</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>260</v>
@@ -3960,7 +3960,7 @@
         <v>586</v>
       </c>
       <c r="I8" s="7">
-        <v>562375</v>
+        <v>632657</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>263</v>
@@ -3975,7 +3975,7 @@
         <v>1063</v>
       </c>
       <c r="N8" s="7">
-        <v>1108182</v>
+        <v>1183814</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>266</v>
@@ -3996,7 +3996,7 @@
         <v>1991</v>
       </c>
       <c r="D9" s="7">
-        <v>2160945</v>
+        <v>2289297</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4011,7 +4011,7 @@
         <v>2919</v>
       </c>
       <c r="I9" s="7">
-        <v>2248325</v>
+        <v>2236711</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4026,7 +4026,7 @@
         <v>4910</v>
       </c>
       <c r="N9" s="7">
-        <v>4409270</v>
+        <v>4526009</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4049,7 +4049,7 @@
         <v>543</v>
       </c>
       <c r="D10" s="7">
-        <v>529684</v>
+        <v>499098</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>269</v>
@@ -4064,7 +4064,7 @@
         <v>813</v>
       </c>
       <c r="I10" s="7">
-        <v>565906</v>
+        <v>519030</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>272</v>
@@ -4079,7 +4079,7 @@
         <v>1356</v>
       </c>
       <c r="N10" s="7">
-        <v>1095591</v>
+        <v>1018128</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>275</v>
@@ -4100,7 +4100,7 @@
         <v>138</v>
       </c>
       <c r="D11" s="7">
-        <v>143355</v>
+        <v>147525</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>278</v>
@@ -4115,7 +4115,7 @@
         <v>191</v>
       </c>
       <c r="I11" s="7">
-        <v>147980</v>
+        <v>141433</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>281</v>
@@ -4130,7 +4130,7 @@
         <v>329</v>
       </c>
       <c r="N11" s="7">
-        <v>291335</v>
+        <v>288958</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>284</v>
@@ -4151,7 +4151,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4166,7 +4166,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4181,7 +4181,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4204,7 +4204,7 @@
         <v>2606</v>
       </c>
       <c r="D13" s="7">
-        <v>2572847</v>
+        <v>2639855</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>287</v>
@@ -4219,7 +4219,7 @@
         <v>4316</v>
       </c>
       <c r="I13" s="7">
-        <v>2935756</v>
+        <v>2736606</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>290</v>
@@ -4234,7 +4234,7 @@
         <v>6922</v>
       </c>
       <c r="N13" s="7">
-        <v>5508604</v>
+        <v>5376461</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>293</v>
@@ -4255,7 +4255,7 @@
         <v>757</v>
       </c>
       <c r="D14" s="7">
-        <v>802771</v>
+        <v>811004</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>296</v>
@@ -4270,7 +4270,7 @@
         <v>1031</v>
       </c>
       <c r="I14" s="7">
-        <v>860802</v>
+        <v>914589</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>299</v>
@@ -4285,7 +4285,7 @@
         <v>1788</v>
       </c>
       <c r="N14" s="7">
-        <v>1663572</v>
+        <v>1725593</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>302</v>
@@ -4306,7 +4306,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3375618</v>
+        <v>3450859</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4321,7 +4321,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3796558</v>
+        <v>3651195</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4336,7 @@
         <v>8710</v>
       </c>
       <c r="N15" s="7">
-        <v>7172176</v>
+        <v>7102054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
